--- a/optymalizacja.xlsx
+++ b/optymalizacja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TimeOptDane" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
   <si>
     <t>Time opt 1</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Liczba transakcji</t>
+  </si>
+  <si>
+    <t>01.08.2017</t>
+  </si>
+  <si>
+    <t>08.08.2017</t>
   </si>
 </sst>
 </file>
@@ -126,22 +132,22 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,120 +475,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
         <v>7</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6">
         <v>14</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="K2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6">
         <v>21</v>
       </c>
-      <c r="Q2" s="3"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -628,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,120 +674,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8">
         <v>5</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8">
         <v>8</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="K2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1">
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8">
         <v>12</v>
       </c>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/optymalizacja.xlsx
+++ b/optymalizacja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TimeOptDane" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
   <si>
     <t>Time opt 1</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>08.08.2017</t>
+  </si>
+  <si>
+    <t>15.08.2017</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,8 +595,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -604,6 +611,20 @@
       </c>
       <c r="B5" t="s">
         <v>12</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -650,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/optymalizacja.xlsx
+++ b/optymalizacja.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
   <si>
     <t>Time opt 1</t>
   </si>
@@ -25,12 +25,6 @@
     <t>Time opt 2</t>
   </si>
   <si>
-    <t>Res opt 1</t>
-  </si>
-  <si>
-    <t>Res opt 3</t>
-  </si>
-  <si>
     <t>Data optymalizacji</t>
   </si>
   <si>
@@ -59,6 +53,21 @@
   </si>
   <si>
     <t>15.08.2017</t>
+  </si>
+  <si>
+    <t>Res opt 1(zapisane jako ResOpt2)</t>
+  </si>
+  <si>
+    <t>16.08.2016</t>
+  </si>
+  <si>
+    <t>Spóźnione o 1 transakcję, powinno być 15.08</t>
+  </si>
+  <si>
+    <t>Res opt 2 (Zapisane jako ResOpt3)</t>
+  </si>
+  <si>
+    <t>Res opt 3 (Bez nazwy w EM303)</t>
   </si>
 </sst>
 </file>
@@ -502,7 +511,7 @@
     </row>
     <row r="2" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -511,7 +520,7 @@
       </c>
       <c r="E2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -520,7 +529,7 @@
       </c>
       <c r="K2" s="6"/>
       <c r="M2" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -531,49 +540,49 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="N3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -581,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -590,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -599,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -610,13 +619,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -624,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -671,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +689,7 @@
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -696,21 +705,21 @@
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="G1" s="7" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="M1" s="7" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -719,7 +728,7 @@
     </row>
     <row r="2" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -728,7 +737,7 @@
       </c>
       <c r="E2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -737,7 +746,7 @@
       </c>
       <c r="K2" s="8"/>
       <c r="M2" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -748,57 +757,63 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>

--- a/optymalizacja.xlsx
+++ b/optymalizacja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TimeOptDane" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
   <si>
     <t>Time opt 1</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Res opt 3 (Bez nazwy w EM303)</t>
+  </si>
+  <si>
+    <t>22.08.2017</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -634,6 +637,14 @@
       </c>
       <c r="B6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>

--- a/optymalizacja.xlsx
+++ b/optymalizacja.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
   <si>
     <t>Time opt 1</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>22.08.2017</t>
+  </si>
+  <si>
+    <t>29.08.2017</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,6 +648,14 @@
       </c>
       <c r="B7" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/optymalizacja.xlsx
+++ b/optymalizacja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TimeOptDane" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
   <si>
     <t>Time opt 1</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>29.08.2017</t>
+  </si>
+  <si>
+    <t>30.08.2016</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -700,10 +703,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,6 +850,14 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:E1"/>

--- a/optymalizacja.xlsx
+++ b/optymalizacja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TimeOptDane" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>Time opt 1</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>30.08.2016</t>
+  </si>
+  <si>
+    <t>05.09.2017</t>
+  </si>
+  <si>
+    <t>12.09.2017</t>
   </si>
 </sst>
 </file>
@@ -470,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,6 +642,12 @@
       <c r="H5" t="s">
         <v>17</v>
       </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -644,6 +656,12 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -659,6 +677,22 @@
       </c>
       <c r="B8" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -681,7 +715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -693,7 +729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -705,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/optymalizacja.xlsx
+++ b/optymalizacja.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>Time opt 1</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>12.09.2017</t>
+  </si>
+  <si>
+    <t>19.09.2017</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,6 +673,12 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -693,6 +702,14 @@
       </c>
       <c r="B10" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
